--- a/media/eb_order/eb_order(request).xlsx
+++ b/media/eb_order/eb_order(request).xlsx
@@ -10,16 +10,16 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="ITERATOR_END">Sheet1!$I$25</definedName>
-    <definedName name="ITERATOR_START">Sheet1!$C$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$44</definedName>
+    <definedName name="ITERATOR_END">Sheet1!$I$28</definedName>
+    <definedName name="ITERATOR_START">Sheet1!$C$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$47</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>作業期間</t>
   </si>
@@ -254,6 +254,20 @@
     </rPh>
     <rPh sb="18" eb="19">
       <t>ニチ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>印紙</t>
+    <rPh sb="0" eb="2">
+      <t>インシ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>（捺印）</t>
+    <rPh sb="1" eb="3">
+      <t>ナツイン</t>
     </rPh>
     <phoneticPr fontId="5"/>
   </si>
@@ -362,7 +376,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -524,11 +538,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -670,6 +721,15 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -678,6 +738,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -983,175 +1046,140 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:I47"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27" customHeight="1">
+    <row r="1" spans="1:9">
+      <c r="B1" s="47"/>
       <c r="I1" s="39" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27" customHeight="1">
-      <c r="I2" s="40" t="s">
+    <row r="2" spans="1:9">
+      <c r="B2" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" s="39"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="B3" s="48" t="s">
+        <v>48</v>
+      </c>
+      <c r="I3" s="40" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="24" customHeight="1">
-      <c r="D3" s="47" t="s">
+    <row r="4" spans="1:9">
+      <c r="B4" s="49"/>
+      <c r="I4" s="39"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="53"/>
+      <c r="I5" s="39"/>
+    </row>
+    <row r="6" spans="1:9" ht="24" customHeight="1">
+      <c r="D6" s="50" t="s">
         <v>36</v>
       </c>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="36" t="s">
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+    </row>
+    <row r="7" spans="1:9" ht="14.25">
+      <c r="A7" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="35" t="s">
+    <row r="8" spans="1:9" ht="14.25">
+      <c r="A8" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="F6" s="36" t="s">
+    <row r="9" spans="1:9" ht="14.25">
+      <c r="A9" s="6"/>
+      <c r="F9" s="36" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1">
-      <c r="F7" s="36" t="s">
+    <row r="10" spans="1:9" ht="18" customHeight="1">
+      <c r="F10" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="37"/>
-    </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1">
-      <c r="F8" s="36" t="s">
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:9" ht="18" customHeight="1">
+      <c r="F11" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="G8" s="37"/>
-    </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1">
-      <c r="F9" s="36" t="s">
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:9" ht="18" customHeight="1">
+      <c r="F12" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="37"/>
-    </row>
-    <row r="10" spans="1:9" ht="19.5">
-      <c r="F10" s="36" t="s">
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25">
+      <c r="F13" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="G10" s="37"/>
-    </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1">
-      <c r="F11" s="38" t="s">
+      <c r="G13" s="37"/>
+    </row>
+    <row r="14" spans="1:9" ht="18" customHeight="1">
+      <c r="F14" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="G11" s="37"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" customHeight="1">
-      <c r="A12" s="2"/>
-    </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" thickBot="1">
-      <c r="A13" s="2"/>
-      <c r="G13" s="1" t="s">
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="1:9" ht="15" customHeight="1">
+      <c r="A15" s="2"/>
+    </row>
+    <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1">
+      <c r="A16" s="2"/>
+      <c r="G16" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1">
-      <c r="G14" s="3"/>
-    </row>
-    <row r="15" spans="1:9" ht="18.95" customHeight="1">
-      <c r="A15" s="1"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:9" ht="19.5" thickBot="1">
-      <c r="G16" s="4"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="7"/>
-    </row>
-    <row r="18" spans="1:9" ht="27" customHeight="1">
-      <c r="A18" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="9"/>
-      <c r="C18" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-    </row>
-    <row r="19" spans="1:9" ht="27" customHeight="1">
-      <c r="A19" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="41" t="s">
-        <v>6</v>
-      </c>
-      <c r="D19" s="18"/>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="19"/>
-    </row>
-    <row r="20" spans="1:9" ht="27" customHeight="1">
-      <c r="A20" s="20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" s="9"/>
-      <c r="C20" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="18"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="41" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="19"/>
+    <row r="17" spans="1:9" ht="18" customHeight="1">
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:9" ht="18.95" customHeight="1">
+      <c r="A18" s="1"/>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:9" ht="14.25" thickBot="1">
+      <c r="G19" s="4"/>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20" s="7"/>
     </row>
     <row r="21" spans="1:9" ht="27" customHeight="1">
       <c r="A21" s="8" t="s">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="B21" s="9"/>
       <c r="C21" s="41" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D21" s="18"/>
-      <c r="E21" s="19"/>
-      <c r="F21" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="41" t="s">
-        <v>10</v>
-      </c>
+      <c r="E21" s="18"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
       <c r="I21" s="19"/>
     </row>
     <row r="22" spans="1:9" ht="27" customHeight="1">
       <c r="A22" s="8" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="B22" s="9"/>
       <c r="C22" s="41" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -1160,65 +1188,77 @@
       <c r="H22" s="18"/>
       <c r="I22" s="19"/>
     </row>
-    <row r="23" spans="1:9" ht="21" customHeight="1">
-      <c r="A23" s="10"/>
-      <c r="B23" s="11"/>
-      <c r="C23" s="42" t="s">
+    <row r="23" spans="1:9" ht="27" customHeight="1">
+      <c r="A23" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="41" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="19"/>
+      <c r="F23" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="9"/>
+      <c r="H23" s="41" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="19"/>
+    </row>
+    <row r="24" spans="1:9" ht="27" customHeight="1">
+      <c r="A24" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="41" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="9"/>
+      <c r="H24" s="41" t="s">
+        <v>10</v>
+      </c>
+      <c r="I24" s="19"/>
+    </row>
+    <row r="25" spans="1:9" ht="27" customHeight="1">
+      <c r="A25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="41" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="19"/>
+    </row>
+    <row r="26" spans="1:9" ht="21" customHeight="1">
+      <c r="A26" s="10"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="22"/>
-    </row>
-    <row r="24" spans="1:9" ht="21" customHeight="1">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="43" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
-    </row>
-    <row r="25" spans="1:9" ht="21" customHeight="1">
-      <c r="A25" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="15"/>
-      <c r="C25" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-    </row>
-    <row r="26" spans="1:9" ht="21" customHeight="1">
-      <c r="A26" s="12"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="43" t="s">
-        <v>33</v>
-      </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
     </row>
     <row r="27" spans="1:9" ht="21" customHeight="1">
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="43" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1228,107 +1268,107 @@
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1">
-      <c r="A28" s="16"/>
-      <c r="B28" s="17"/>
-      <c r="C28" s="44" t="s">
+      <c r="A28" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="15"/>
+      <c r="C28" s="43" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" spans="1:9" ht="21" customHeight="1">
+      <c r="A29" s="12"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+    </row>
+    <row r="30" spans="1:9" ht="21" customHeight="1">
+      <c r="A30" s="12"/>
+      <c r="B30" s="13"/>
+      <c r="C30" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+    </row>
+    <row r="31" spans="1:9" ht="21" customHeight="1">
+      <c r="A31" s="16"/>
+      <c r="B31" s="17"/>
+      <c r="C31" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="26"/>
-    </row>
-    <row r="29" spans="1:9" ht="27" customHeight="1">
-      <c r="A29" s="8" t="s">
+      <c r="D31" s="25"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="25"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:9" ht="27" customHeight="1">
+      <c r="A32" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="41" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="41" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
-    </row>
-    <row r="30" spans="1:9" ht="27" customHeight="1">
-      <c r="A30" s="8" t="s">
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+    </row>
+    <row r="33" spans="1:9" ht="27" customHeight="1">
+      <c r="A33" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B30" s="9"/>
-      <c r="C30" s="41" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="11"/>
-      <c r="C31" s="42" t="s">
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
+    </row>
+    <row r="34" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="29"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="30"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A32" s="12"/>
-      <c r="B32" s="13"/>
-      <c r="C32" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D32" s="31"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-      <c r="G32" s="31"/>
-      <c r="H32" s="31"/>
-      <c r="I32" s="32"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A33" s="12"/>
-      <c r="B33" s="13"/>
-      <c r="C33" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="31"/>
-      <c r="E33" s="31"/>
-      <c r="F33" s="31"/>
-      <c r="G33" s="31"/>
-      <c r="H33" s="31"/>
-      <c r="I33" s="32"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A34" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B34" s="15"/>
-      <c r="C34" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="D34" s="31"/>
-      <c r="E34" s="31"/>
-      <c r="F34" s="31"/>
-      <c r="G34" s="31"/>
-      <c r="H34" s="31"/>
-      <c r="I34" s="32"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="30"/>
     </row>
     <row r="35" spans="1:9" ht="18.75" customHeight="1">
       <c r="A35" s="12"/>
       <c r="B35" s="13"/>
       <c r="C35" s="45" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D35" s="31"/>
       <c r="E35" s="31"/>
@@ -1337,11 +1377,11 @@
       <c r="H35" s="31"/>
       <c r="I35" s="32"/>
     </row>
-    <row r="36" spans="1:9" ht="19.5" customHeight="1">
+    <row r="36" spans="1:9" ht="18.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="45" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -1350,11 +1390,13 @@
       <c r="H36" s="31"/>
       <c r="I36" s="32"/>
     </row>
-    <row r="37" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A37" s="12"/>
-      <c r="B37" s="13"/>
+    <row r="37" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A37" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="15"/>
       <c r="C37" s="45" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -1363,95 +1405,134 @@
       <c r="H37" s="31"/>
       <c r="I37" s="32"/>
     </row>
-    <row r="38" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="46" t="s">
+    <row r="38" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
+      <c r="C38" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="31"/>
+      <c r="E38" s="31"/>
+      <c r="F38" s="31"/>
+      <c r="G38" s="31"/>
+      <c r="H38" s="31"/>
+      <c r="I38" s="32"/>
+    </row>
+    <row r="39" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A39" s="12"/>
+      <c r="B39" s="13"/>
+      <c r="C39" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="31"/>
+      <c r="E39" s="31"/>
+      <c r="F39" s="31"/>
+      <c r="G39" s="31"/>
+      <c r="H39" s="31"/>
+      <c r="I39" s="32"/>
+    </row>
+    <row r="40" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A40" s="12"/>
+      <c r="B40" s="13"/>
+      <c r="C40" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D40" s="31"/>
+      <c r="E40" s="31"/>
+      <c r="F40" s="31"/>
+      <c r="G40" s="31"/>
+      <c r="H40" s="31"/>
+      <c r="I40" s="32"/>
+    </row>
+    <row r="41" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A41" s="16"/>
+      <c r="B41" s="17"/>
+      <c r="C41" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="33"/>
-      <c r="G38" s="33"/>
-      <c r="H38" s="33"/>
-      <c r="I38" s="34"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="48" t="s">
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="33"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="33"/>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9">
+      <c r="A42" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="B39" s="48"/>
-      <c r="C39" s="48"/>
-      <c r="D39" s="48"/>
-      <c r="E39" s="48"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="48"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="49"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="49"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="49"/>
-      <c r="I40" s="49"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="49"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="49"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="49"/>
-      <c r="I41" s="49"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="49"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="49"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="49"/>
-      <c r="I42" s="49"/>
+      <c r="B42" s="51"/>
+      <c r="C42" s="51"/>
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="51"/>
+      <c r="I42" s="51"/>
     </row>
     <row r="43" spans="1:9">
-      <c r="A43" s="49"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="49"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="49"/>
-      <c r="I43" s="49"/>
+      <c r="A43" s="52"/>
+      <c r="B43" s="52"/>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="49"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="49"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="49"/>
-      <c r="I44" s="49"/>
+      <c r="A44" s="52"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+    </row>
+    <row r="45" spans="1:9">
+      <c r="A45" s="52"/>
+      <c r="B45" s="52"/>
+      <c r="C45" s="52"/>
+      <c r="D45" s="52"/>
+      <c r="E45" s="52"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+    </row>
+    <row r="46" spans="1:9">
+      <c r="A46" s="52"/>
+      <c r="B46" s="52"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+    </row>
+    <row r="47" spans="1:9">
+      <c r="A47" s="52"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="52"/>
+      <c r="D47" s="52"/>
+      <c r="E47" s="52"/>
+      <c r="F47" s="52"/>
+      <c r="G47" s="52"/>
+      <c r="H47" s="52"/>
+      <c r="I47" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D3:F3"/>
-    <mergeCell ref="A39:I44"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A42:I47"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="81" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>

--- a/media/eb_order/eb_order(request).xlsx
+++ b/media/eb_order/eb_order(request).xlsx
@@ -12,14 +12,14 @@
   <definedNames>
     <definedName name="ITERATOR_END">Sheet1!$I$28</definedName>
     <definedName name="ITERATOR_START">Sheet1!$C$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$47</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$48</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="144525" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>作業期間</t>
   </si>
@@ -269,6 +269,10 @@
     <rPh sb="1" eb="3">
       <t>ナツイン</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$CALCULATE_TYPE_COMMENT$}</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -730,6 +734,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -738,9 +745,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1046,7 +1050,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I47"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
@@ -1080,15 +1084,15 @@
       <c r="I4" s="39"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="B5" s="53"/>
+      <c r="B5" s="50"/>
       <c r="I5" s="39"/>
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1">
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:9" ht="14.25">
       <c r="A7" s="36" t="s">
@@ -1299,7 +1303,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="43" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -1309,40 +1313,38 @@
       <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="21" customHeight="1">
-      <c r="A31" s="16"/>
-      <c r="B31" s="17"/>
-      <c r="C31" s="44" t="s">
+      <c r="A31" s="12"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="23"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+    </row>
+    <row r="32" spans="1:9" ht="21" customHeight="1">
+      <c r="A32" s="16"/>
+      <c r="B32" s="17"/>
+      <c r="C32" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="25"/>
-      <c r="G31" s="25"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="1:9" ht="27" customHeight="1">
-      <c r="A32" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="9"/>
-      <c r="C32" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="28"/>
+      <c r="D32" s="25"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="25"/>
+      <c r="G32" s="25"/>
+      <c r="H32" s="25"/>
+      <c r="I32" s="26"/>
     </row>
     <row r="33" spans="1:9" ht="27" customHeight="1">
       <c r="A33" s="8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="41" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="27"/>
@@ -1351,37 +1353,39 @@
       <c r="H33" s="27"/>
       <c r="I33" s="28"/>
     </row>
-    <row r="34" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="42" t="s">
+    <row r="34" spans="1:9" ht="27" customHeight="1">
+      <c r="A34" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+    </row>
+    <row r="35" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="30"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A35" s="12"/>
-      <c r="B35" s="13"/>
-      <c r="C35" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D35" s="31"/>
-      <c r="E35" s="31"/>
-      <c r="F35" s="31"/>
-      <c r="G35" s="31"/>
-      <c r="H35" s="31"/>
-      <c r="I35" s="32"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="30"/>
     </row>
     <row r="36" spans="1:9" ht="18.75" customHeight="1">
       <c r="A36" s="12"/>
       <c r="B36" s="13"/>
       <c r="C36" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D36" s="31"/>
       <c r="E36" s="31"/>
@@ -1391,12 +1395,10 @@
       <c r="I36" s="32"/>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A37" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B37" s="15"/>
+      <c r="A37" s="12"/>
+      <c r="B37" s="13"/>
       <c r="C37" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -1406,10 +1408,12 @@
       <c r="I37" s="32"/>
     </row>
     <row r="38" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A38" s="12"/>
-      <c r="B38" s="13"/>
+      <c r="A38" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B38" s="15"/>
       <c r="C38" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
@@ -1418,11 +1422,11 @@
       <c r="H38" s="31"/>
       <c r="I38" s="32"/>
     </row>
-    <row r="39" spans="1:9" ht="19.5" customHeight="1">
+    <row r="39" spans="1:9" ht="18.75" customHeight="1">
       <c r="A39" s="12"/>
       <c r="B39" s="13"/>
       <c r="C39" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
@@ -1435,7 +1439,7 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="45" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
@@ -1445,33 +1449,35 @@
       <c r="I40" s="32"/>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A41" s="16"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="46" t="s">
+      <c r="A41" s="12"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D41" s="31"/>
+      <c r="E41" s="31"/>
+      <c r="F41" s="31"/>
+      <c r="G41" s="31"/>
+      <c r="H41" s="31"/>
+      <c r="I41" s="32"/>
+    </row>
+    <row r="42" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A42" s="16"/>
+      <c r="B42" s="17"/>
+      <c r="C42" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="33"/>
-      <c r="G41" s="33"/>
-      <c r="H41" s="33"/>
-      <c r="I41" s="34"/>
-    </row>
-    <row r="42" spans="1:9">
-      <c r="A42" s="51" t="s">
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="33"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="33"/>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" spans="1:9">
+      <c r="A43" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="52"/>
       <c r="B43" s="52"/>
       <c r="C43" s="52"/>
       <c r="D43" s="52"/>
@@ -1482,53 +1488,64 @@
       <c r="I43" s="52"/>
     </row>
     <row r="44" spans="1:9">
-      <c r="A44" s="52"/>
-      <c r="B44" s="52"/>
-      <c r="C44" s="52"/>
-      <c r="D44" s="52"/>
-      <c r="E44" s="52"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
+      <c r="A44" s="53"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="53"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
     </row>
     <row r="45" spans="1:9">
-      <c r="A45" s="52"/>
-      <c r="B45" s="52"/>
-      <c r="C45" s="52"/>
-      <c r="D45" s="52"/>
-      <c r="E45" s="52"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
+      <c r="A45" s="53"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="53"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="53"/>
+      <c r="I45" s="53"/>
     </row>
     <row r="46" spans="1:9">
-      <c r="A46" s="52"/>
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
-      <c r="E46" s="52"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
+      <c r="A46" s="53"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="53"/>
+      <c r="D46" s="53"/>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+      <c r="G46" s="53"/>
+      <c r="H46" s="53"/>
+      <c r="I46" s="53"/>
     </row>
     <row r="47" spans="1:9">
-      <c r="A47" s="52"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
-      <c r="E47" s="52"/>
-      <c r="F47" s="52"/>
-      <c r="G47" s="52"/>
-      <c r="H47" s="52"/>
-      <c r="I47" s="52"/>
+      <c r="A47" s="53"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="53"/>
+      <c r="D47" s="53"/>
+      <c r="E47" s="53"/>
+      <c r="F47" s="53"/>
+      <c r="G47" s="53"/>
+      <c r="H47" s="53"/>
+      <c r="I47" s="53"/>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="53"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="53"/>
+      <c r="D48" s="53"/>
+      <c r="E48" s="53"/>
+      <c r="F48" s="53"/>
+      <c r="G48" s="53"/>
+      <c r="H48" s="53"/>
+      <c r="I48" s="53"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A42:I47"/>
+    <mergeCell ref="A43:I48"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/media/eb_order/eb_order(request).xlsx
+++ b/media/eb_order/eb_order(request).xlsx
@@ -208,10 +208,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>{$SUBCONTRACTOR_NAME$}</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>{$SUBCONTRACTOR_ADDRESS1$}</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -273,6 +269,10 @@
   </si>
   <si>
     <t>{$CALCULATE_TYPE_COMMENT$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$SUBCONTRACTOR_NAME$}    ㊞</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1052,7 +1052,9 @@
   </sheetPr>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
@@ -1067,16 +1069,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="48" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1107,36 +1109,36 @@
     <row r="9" spans="1:9" ht="14.25">
       <c r="A9" s="6"/>
       <c r="F9" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="F10" s="36" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="F11" s="36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
       <c r="F12" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:9" ht="14.25">
       <c r="F13" s="36" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="F14" s="38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G14" s="37"/>
     </row>
@@ -1146,7 +1148,7 @@
     <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="2"/>
       <c r="G16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
@@ -1303,7 +1305,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>

--- a/media/eb_order/eb_order(request).xlsx
+++ b/media/eb_order/eb_order(request).xlsx
@@ -12,14 +12,14 @@
   <definedNames>
     <definedName name="ITERATOR_END">Sheet1!$I$28</definedName>
     <definedName name="ITERATOR_START">Sheet1!$C$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$48</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$I$49</definedName>
   </definedNames>
-  <calcPr calcId="144525" refMode="R1C1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>作業期間</t>
   </si>
@@ -273,6 +273,10 @@
   </si>
   <si>
     <t>{$SUBCONTRACTOR_NAME$}    ㊞</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$ALLOWANCE_OTHER_MEMO$}</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1050,11 +1054,9 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
@@ -1318,7 +1320,7 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="43" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -1328,40 +1330,38 @@
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="21" customHeight="1">
-      <c r="A32" s="16"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="44" t="s">
+      <c r="A32" s="12"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="43" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+    </row>
+    <row r="33" spans="1:9" ht="21" customHeight="1">
+      <c r="A33" s="16"/>
+      <c r="B33" s="17"/>
+      <c r="C33" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="25"/>
-      <c r="G32" s="25"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="1:9" ht="27" customHeight="1">
-      <c r="A33" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B33" s="9"/>
-      <c r="C33" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27"/>
-      <c r="I33" s="28"/>
+      <c r="D33" s="25"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="25"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="25"/>
+      <c r="I33" s="26"/>
     </row>
     <row r="34" spans="1:9" ht="27" customHeight="1">
       <c r="A34" s="8" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="41" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="27"/>
@@ -1370,37 +1370,39 @@
       <c r="H34" s="27"/>
       <c r="I34" s="28"/>
     </row>
-    <row r="35" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="11"/>
-      <c r="C35" s="42" t="s">
+    <row r="35" spans="1:9" ht="27" customHeight="1">
+      <c r="A35" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+    </row>
+    <row r="36" spans="1:9" ht="18.75" customHeight="1">
+      <c r="A36" s="10"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-      <c r="F35" s="29"/>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="30"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A36" s="12"/>
-      <c r="B36" s="13"/>
-      <c r="C36" s="45" t="s">
-        <v>19</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="31"/>
-      <c r="G36" s="31"/>
-      <c r="H36" s="31"/>
-      <c r="I36" s="32"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+      <c r="F36" s="29"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="30"/>
     </row>
     <row r="37" spans="1:9" ht="18.75" customHeight="1">
       <c r="A37" s="12"/>
       <c r="B37" s="13"/>
       <c r="C37" s="45" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D37" s="31"/>
       <c r="E37" s="31"/>
@@ -1410,12 +1412,10 @@
       <c r="I37" s="32"/>
     </row>
     <row r="38" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A38" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B38" s="15"/>
+      <c r="A38" s="12"/>
+      <c r="B38" s="13"/>
       <c r="C38" s="45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="31"/>
       <c r="E38" s="31"/>
@@ -1425,10 +1425,12 @@
       <c r="I38" s="32"/>
     </row>
     <row r="39" spans="1:9" ht="18.75" customHeight="1">
-      <c r="A39" s="12"/>
-      <c r="B39" s="13"/>
+      <c r="A39" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B39" s="15"/>
       <c r="C39" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
@@ -1437,11 +1439,11 @@
       <c r="H39" s="31"/>
       <c r="I39" s="32"/>
     </row>
-    <row r="40" spans="1:9" ht="19.5" customHeight="1">
+    <row r="40" spans="1:9" ht="18.75" customHeight="1">
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
@@ -1454,7 +1456,7 @@
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="45" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
@@ -1464,41 +1466,43 @@
       <c r="I41" s="32"/>
     </row>
     <row r="42" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A42" s="16"/>
-      <c r="B42" s="17"/>
-      <c r="C42" s="46" t="s">
+      <c r="A42" s="12"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="45" t="s">
+        <v>35</v>
+      </c>
+      <c r="D42" s="31"/>
+      <c r="E42" s="31"/>
+      <c r="F42" s="31"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="32"/>
+    </row>
+    <row r="43" spans="1:9" ht="19.5" customHeight="1">
+      <c r="A43" s="16"/>
+      <c r="B43" s="17"/>
+      <c r="C43" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="33"/>
-      <c r="G42" s="33"/>
-      <c r="H42" s="33"/>
-      <c r="I42" s="34"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="52" t="s">
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="33"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="33"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9">
+      <c r="A44" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="52"/>
-      <c r="C43" s="52"/>
-      <c r="D43" s="52"/>
-      <c r="E43" s="52"/>
-      <c r="F43" s="52"/>
-      <c r="G43" s="52"/>
-      <c r="H43" s="52"/>
-      <c r="I43" s="52"/>
-    </row>
-    <row r="44" spans="1:9">
-      <c r="A44" s="53"/>
-      <c r="B44" s="53"/>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
+      <c r="B44" s="52"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" s="53"/>
@@ -1544,14 +1548,25 @@
       <c r="H48" s="53"/>
       <c r="I48" s="53"/>
     </row>
+    <row r="49" spans="1:9">
+      <c r="A49" s="53"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="53"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
+      <c r="G49" s="53"/>
+      <c r="H49" s="53"/>
+      <c r="I49" s="53"/>
+    </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="D6:F6"/>
-    <mergeCell ref="A43:I48"/>
+    <mergeCell ref="A44:I49"/>
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>

--- a/media/eb_order/eb_order(request).xlsx
+++ b/media/eb_order/eb_order(request).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="630" yWindow="510" windowWidth="18015" windowHeight="7650"/>
+    <workbookView xWindow="636" yWindow="516" windowWidth="18012" windowHeight="7656"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -238,10 +238,33 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>平成      年    月    日</t>
+    <t>印紙</t>
     <rPh sb="0" eb="2">
-      <t>ヘイセイ</t>
+      <t>インシ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>（捺印）</t>
+    <rPh sb="1" eb="3">
+      <t>ナツイン</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$CALCULATE_TYPE_COMMENT$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$SUBCONTRACTOR_NAME$}    ㊞</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>{$ALLOWANCE_OTHER_MEMO$}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t xml:space="preserve">        年    月    日</t>
     <rPh sb="8" eb="9">
       <t>ネン</t>
     </rPh>
@@ -251,32 +274,6 @@
     <rPh sb="18" eb="19">
       <t>ニチ</t>
     </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>印紙</t>
-    <rPh sb="0" eb="2">
-      <t>インシ</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>（捺印）</t>
-    <rPh sb="1" eb="3">
-      <t>ナツイン</t>
-    </rPh>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>{$CALCULATE_TYPE_COMMENT$}</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>{$SUBCONTRACTOR_NAME$}    ㊞</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>{$ALLOWANCE_OTHER_MEMO$}</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1058,7 +1055,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleSheetLayoutView="85" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="18"/>
   <cols>
     <col min="8" max="8" width="11" customWidth="1"/>
   </cols>
@@ -1071,16 +1068,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1098,17 +1095,17 @@
       <c r="E6" s="51"/>
       <c r="F6" s="51"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="14.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="35" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="6"/>
       <c r="F9" s="36" t="s">
         <v>43</v>
@@ -1116,7 +1113,7 @@
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="F10" s="36" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G10" s="37"/>
     </row>
@@ -1132,7 +1129,7 @@
       </c>
       <c r="G12" s="37"/>
     </row>
-    <row r="13" spans="1:9" ht="14.25">
+    <row r="13" spans="1:9" ht="19.8">
       <c r="F13" s="36" t="s">
         <v>40</v>
       </c>
@@ -1156,11 +1153,11 @@
     <row r="17" spans="1:9" ht="18" customHeight="1">
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:9" ht="18.95" customHeight="1">
+    <row r="18" spans="1:9" ht="18.899999999999999" customHeight="1">
       <c r="A18" s="1"/>
       <c r="G18" s="5"/>
     </row>
-    <row r="19" spans="1:9" ht="14.25" thickBot="1">
+    <row r="19" spans="1:9" ht="18.600000000000001" thickBot="1">
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:9">
@@ -1307,7 +1304,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="43" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -1320,7 +1317,7 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -1566,7 +1563,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="89" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>

--- a/media/eb_order/eb_order(request).xlsx
+++ b/media/eb_order/eb_order(request).xlsx
@@ -121,10 +121,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>③ 請求書は毎月作業実績表（現場の承認印）を添付の上、翌月5日迄に送付する。</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>④ 延長/中止の場合には、両者協議の上、継続検討を行うものとする。</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -274,6 +270,10 @@
     <rPh sb="18" eb="19">
       <t>ニチ</t>
     </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>③ 請求はイー・ビジネスからメール配信の「御請求書」に押印、郵送する。</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -1068,16 +1068,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="B2" s="48" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I2" s="39"/>
     </row>
     <row r="3" spans="1:9">
       <c r="B3" s="48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I3" s="40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1090,54 +1090,54 @@
     </row>
     <row r="6" spans="1:9" ht="24" customHeight="1">
       <c r="D6" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E6" s="51"/>
       <c r="F6" s="51"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="36" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="35" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="6"/>
       <c r="F9" s="36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1">
       <c r="F10" s="36" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G10" s="37"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1">
       <c r="F11" s="36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G11" s="37"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1">
       <c r="F12" s="36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G12" s="37"/>
     </row>
     <row r="13" spans="1:9" ht="19.8">
       <c r="F13" s="36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="37"/>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1">
       <c r="F14" s="38" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G14" s="37"/>
     </row>
@@ -1147,7 +1147,7 @@
     <row r="16" spans="1:9" ht="18" customHeight="1" thickBot="1">
       <c r="A16" s="2"/>
       <c r="G16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1">
@@ -1204,7 +1204,7 @@
       <c r="D23" s="18"/>
       <c r="E23" s="19"/>
       <c r="F23" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G23" s="9"/>
       <c r="H23" s="41" t="s">
@@ -1250,7 +1250,7 @@
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="42" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
@@ -1263,7 +1263,7 @@
       <c r="A27" s="12"/>
       <c r="B27" s="13"/>
       <c r="C27" s="43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D27" s="23"/>
       <c r="E27" s="23"/>
@@ -1274,11 +1274,11 @@
     </row>
     <row r="28" spans="1:9" ht="21" customHeight="1">
       <c r="A28" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B28" s="15"/>
       <c r="C28" s="43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D28" s="23"/>
       <c r="E28" s="23"/>
@@ -1291,7 +1291,7 @@
       <c r="A29" s="12"/>
       <c r="B29" s="13"/>
       <c r="C29" s="43" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D29" s="23"/>
       <c r="E29" s="23"/>
@@ -1304,7 +1304,7 @@
       <c r="A30" s="12"/>
       <c r="B30" s="13"/>
       <c r="C30" s="43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D30" s="23"/>
       <c r="E30" s="23"/>
@@ -1317,7 +1317,7 @@
       <c r="A31" s="12"/>
       <c r="B31" s="13"/>
       <c r="C31" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -1330,7 +1330,7 @@
       <c r="A32" s="12"/>
       <c r="B32" s="13"/>
       <c r="C32" s="43" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="23"/>
       <c r="E32" s="23"/>
@@ -1373,7 +1373,7 @@
       </c>
       <c r="B35" s="9"/>
       <c r="C35" s="41" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="27"/>
@@ -1423,11 +1423,11 @@
     </row>
     <row r="39" spans="1:9" ht="18.75" customHeight="1">
       <c r="A39" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="15"/>
       <c r="C39" s="45" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="D39" s="31"/>
       <c r="E39" s="31"/>
@@ -1440,7 +1440,7 @@
       <c r="A40" s="12"/>
       <c r="B40" s="13"/>
       <c r="C40" s="45" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D40" s="31"/>
       <c r="E40" s="31"/>
@@ -1453,7 +1453,7 @@
       <c r="A41" s="12"/>
       <c r="B41" s="13"/>
       <c r="C41" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D41" s="31"/>
       <c r="E41" s="31"/>
@@ -1466,7 +1466,7 @@
       <c r="A42" s="12"/>
       <c r="B42" s="13"/>
       <c r="C42" s="45" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42" s="31"/>
       <c r="E42" s="31"/>
@@ -1479,7 +1479,7 @@
       <c r="A43" s="16"/>
       <c r="B43" s="17"/>
       <c r="C43" s="46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="33"/>
       <c r="E43" s="33"/>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" s="52" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B44" s="52"/>
       <c r="C44" s="52"/>

--- a/media/eb_order/eb_order(request).xlsx
+++ b/media/eb_order/eb_order(request).xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\ebusiness.old\media\eb_order\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42431040-1DC4-4E40-BE1A-B04651310374}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="636" yWindow="516" windowWidth="18012" windowHeight="7656"/>
+    <workbookView xWindow="3336" yWindow="696" windowWidth="14040" windowHeight="11100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -273,14 +279,14 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>③ 請求はイー・ビジネスからメール配信の「御請求書」に押印、郵送する。</t>
+    <t>③ 請求はWisdom Technologyからメール配信の「御請求書」に押印、郵送する。</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="12">
     <font>
       <sz val="11"/>
@@ -756,6 +762,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1047,7 +1056,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -1563,7 +1572,7 @@
   </mergeCells>
   <phoneticPr fontId="5"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="72" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="73" orientation="portrait" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="9" max="49" man="1"/>
   </colBreaks>
